--- a/設定の案内reactとreduxテスト.xlsx
+++ b/設定の案内reactとreduxテスト.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="実行" sheetId="3" r:id="rId1"/>
-    <sheet name="内容" sheetId="1" r:id="rId2"/>
-    <sheet name="参照" sheetId="2" r:id="rId3"/>
+    <sheet name="参照" sheetId="2" r:id="rId1"/>
+    <sheet name="実行" sheetId="3" r:id="rId2"/>
+    <sheet name="設定" sheetId="1" r:id="rId3"/>
+    <sheet name="案内" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>package.jsonファル中に新しいライブラリを追加します。以下のライブラリは必須です。</t>
   </si>
@@ -98,13 +99,250 @@
   </si>
   <si>
     <t>npm test</t>
+  </si>
+  <si>
+    <t>それぞれ機能テスト中に3つ部分があります。</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>種類を説明するのをテストしたいです。</t>
+  </si>
+  <si>
+    <t>結果がほしいです。</t>
+  </si>
+  <si>
+    <t>機能の内容です。何にをしますか。</t>
+  </si>
+  <si>
+    <t>例えば：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const item = 'Finish docs';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const expectedAction = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  })</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t>テスト内容</t>
+  </si>
+  <si>
+    <t>機能内容</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      type: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ADD_ITEM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>',</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  return{type:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ADD_ITEM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', item}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>addItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>addItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', () =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('should create an action to add a new item', () =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>addItem(item))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.toEqual(expectedAction)</t>
+    </r>
+  </si>
+  <si>
+    <t>以下のソースコードに　「action」の「addItem」機能のテストを書かれます。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,13 +368,51 @@
       <color theme="1"/>
       <name val="Georgia"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,11 +427,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,144 +711,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="37.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,4 +730,271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="37.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/設定の案内reactとreduxテスト.xlsx
+++ b/設定の案内reactとreduxテスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="参照" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>package.jsonファル中に新しいライブラリを追加します。以下のライブラリは必須です。</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>以下のソースコードに　「action」の「addItem」機能のテストを書かれます。</t>
+  </si>
+  <si>
+    <t>https://github.com/chaijs/chai-jquery</t>
+  </si>
+  <si>
+    <t>成分をテストするのに関して</t>
+  </si>
+  <si>
+    <t>http://chaijs.com/api/bdd/</t>
   </si>
 </sst>
 </file>
@@ -711,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -725,6 +734,21 @@
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
